--- a/planilha_testes.xlsx
+++ b/planilha_testes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leticia F\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alunolab05.LAB\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha de teste" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
   <si>
     <t>ET01</t>
   </si>
@@ -274,6 +274,48 @@
   </si>
   <si>
     <t>ET11 - T23</t>
+  </si>
+  <si>
+    <t>ET12</t>
+  </si>
+  <si>
+    <t>T24 - Selecionar nenhum bairro no filtro</t>
+  </si>
+  <si>
+    <t>O sistema deverá exibir todas as caronas com o status disponível</t>
+  </si>
+  <si>
+    <t>ET13</t>
+  </si>
+  <si>
+    <t>T25 - Selecionar algum bairro no filtro</t>
+  </si>
+  <si>
+    <t>O sistema deverá exibir todas as caronas que estão disponíveis dentro daquele bairro.</t>
+  </si>
+  <si>
+    <t>ET14</t>
+  </si>
+  <si>
+    <t>T26 - Confirmar o oferecimento de uma carona</t>
+  </si>
+  <si>
+    <t>O sistema não poderá exibir o aluno solicitante na lista de caronas disponíveis.</t>
+  </si>
+  <si>
+    <t>T27 - Não confirmar o oferecimento de uma carona</t>
+  </si>
+  <si>
+    <t>O sistema deverá continuar exibindo o aluno solicitante na lista de caronas disponíveis.</t>
+  </si>
+  <si>
+    <t>ET15</t>
+  </si>
+  <si>
+    <t>O sistema deverá enviar uma mensagem para o aluno solicitante informando o oferecimento da carona.</t>
+  </si>
+  <si>
+    <t>T28 - Confirmar o oferecimento de uma carona</t>
   </si>
 </sst>
 </file>
@@ -418,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,6 +503,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1794,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,7 +1865,7 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1831,7 +1876,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
@@ -1840,7 +1885,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -1849,7 +1894,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
@@ -1858,7 +1903,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1869,7 +1914,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
@@ -1889,7 +1934,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1900,7 +1945,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
@@ -1909,7 +1954,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1920,7 +1965,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="6" t="s">
         <v>60</v>
       </c>
@@ -1929,7 +1974,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1940,7 +1985,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="6" t="s">
         <v>62</v>
       </c>
@@ -1949,7 +1994,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="2" t="s">
         <v>63</v>
       </c>
@@ -1958,7 +2003,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="18" t="s">
         <v>67</v>
       </c>
@@ -1989,7 +2034,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2000,7 +2045,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="6" t="s">
         <v>72</v>
       </c>
@@ -2020,7 +2065,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -2031,7 +2076,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="6" t="s">
         <v>75</v>
       </c>
@@ -2040,7 +2085,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="6" t="s">
         <v>76</v>
       </c>
@@ -2048,13 +2093,62 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="12"/>
+    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A9:A10"/>
@@ -2072,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
